--- a/GATEWAY/A1#111#LABICASRLXX/Labica_srl/fse2-connector/1.2.0/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111#LABICASRLXX/Labica_srl/fse2-connector/1.2.0/accreditamento-checklist_V8.2.6.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="265">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1898,7 +1898,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3056,17 +3056,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
-      <selection pane="bottomRight" activeCell="I35" activeCellId="0" sqref="I35"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3362,7 +3362,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="27" t="n">
         <v>4</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="113.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="113.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="n">
         <v>28</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="113.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="113.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="n">
         <v>36</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="68.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="n">
         <v>44</v>
       </c>
@@ -3679,7 +3679,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="90.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="90.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="29" t="n">
         <v>53</v>
       </c>
@@ -3724,8 +3724,12 @@
       <c r="P17" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
+      <c r="Q17" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R17" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="S17" s="39" t="s">
         <v>77</v>
       </c>
@@ -3736,7 +3740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="90.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="90.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="29" t="n">
         <v>55</v>
       </c>
@@ -3781,8 +3785,12 @@
       <c r="P18" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
+      <c r="Q18" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R18" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="S18" s="39" t="s">
         <v>77</v>
       </c>
@@ -3793,7 +3801,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="90.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="90.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="29" t="n">
         <v>56</v>
       </c>
@@ -3838,8 +3846,12 @@
       <c r="P19" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
+      <c r="Q19" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R19" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="S19" s="39" t="s">
         <v>77</v>
       </c>
@@ -3850,7 +3862,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="90.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="90.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="29" t="n">
         <v>57</v>
       </c>
@@ -3895,8 +3907,12 @@
       <c r="P20" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
+      <c r="Q20" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R20" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="S20" s="39" t="s">
         <v>77</v>
       </c>
@@ -3907,7 +3923,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="90.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="90.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="29" t="n">
         <v>59</v>
       </c>
@@ -3952,8 +3968,12 @@
       <c r="P21" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
+      <c r="Q21" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R21" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="S21" s="39" t="s">
         <v>77</v>
       </c>
@@ -3964,7 +3984,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="90.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="90.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="29" t="n">
         <v>60</v>
       </c>
@@ -4009,8 +4029,12 @@
       <c r="P22" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
+      <c r="Q22" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R22" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="S22" s="39" t="s">
         <v>77</v>
       </c>
@@ -4021,7 +4045,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="90.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="90.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="29" t="n">
         <v>61</v>
       </c>
@@ -4066,8 +4090,12 @@
       <c r="P23" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
+      <c r="Q23" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R23" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="S23" s="39" t="s">
         <v>77</v>
       </c>
@@ -4078,7 +4106,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="90.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="90.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="29" t="n">
         <v>62</v>
       </c>
@@ -4123,8 +4151,12 @@
       <c r="P24" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
+      <c r="Q24" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R24" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="S24" s="39" t="s">
         <v>77</v>
       </c>
@@ -4180,9 +4212,15 @@
       <c r="P25" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
+      <c r="Q25" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R25" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="S25" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="T25" s="33"/>
       <c r="U25" s="34"/>
       <c r="V25" s="35"/>
@@ -4235,9 +4273,15 @@
       <c r="P26" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
+      <c r="Q26" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R26" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="S26" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="T26" s="33"/>
       <c r="U26" s="34"/>
       <c r="V26" s="35"/>
@@ -4290,9 +4334,15 @@
       <c r="P27" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
+      <c r="Q27" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R27" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="S27" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="T27" s="33"/>
       <c r="U27" s="34"/>
       <c r="V27" s="35"/>
@@ -4345,9 +4395,15 @@
       <c r="P28" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
+      <c r="Q28" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R28" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="S28" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="T28" s="33"/>
       <c r="U28" s="34"/>
       <c r="V28" s="35"/>
@@ -4400,9 +4456,15 @@
       <c r="P29" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
+      <c r="Q29" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R29" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="S29" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="T29" s="33"/>
       <c r="U29" s="34"/>
       <c r="V29" s="35"/>
@@ -4455,9 +4517,15 @@
       <c r="P30" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
+      <c r="Q30" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R30" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="S30" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="T30" s="33"/>
       <c r="U30" s="34"/>
       <c r="V30" s="35"/>
@@ -4510,9 +4578,15 @@
       <c r="P31" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
+      <c r="Q31" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R31" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="S31" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="T31" s="33"/>
       <c r="U31" s="34"/>
       <c r="V31" s="35"/>
@@ -4565,9 +4639,15 @@
       <c r="P32" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
+      <c r="Q32" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R32" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="S32" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="T32" s="33"/>
       <c r="U32" s="34"/>
       <c r="V32" s="35"/>
@@ -4620,9 +4700,15 @@
       <c r="P33" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
+      <c r="Q33" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R33" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="S33" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="T33" s="33"/>
       <c r="U33" s="34"/>
       <c r="V33" s="35"/>
@@ -4675,9 +4761,15 @@
       <c r="P34" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
+      <c r="Q34" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R34" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="S34" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="T34" s="33"/>
       <c r="U34" s="34"/>
       <c r="V34" s="35"/>
@@ -4730,9 +4822,15 @@
       <c r="P35" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
+      <c r="Q35" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R35" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="S35" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="T35" s="33"/>
       <c r="U35" s="34"/>
       <c r="V35" s="35"/>
@@ -4785,9 +4883,15 @@
       <c r="P36" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
+      <c r="Q36" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R36" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="S36" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="T36" s="33"/>
       <c r="U36" s="34"/>
       <c r="V36" s="35"/>
@@ -4840,9 +4944,15 @@
       <c r="P37" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
+      <c r="Q37" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R37" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="S37" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="T37" s="33"/>
       <c r="U37" s="34"/>
       <c r="V37" s="35"/>
@@ -4895,9 +5005,15 @@
       <c r="P38" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
+      <c r="Q38" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R38" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="S38" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="T38" s="33"/>
       <c r="U38" s="34"/>
       <c r="V38" s="35"/>
@@ -4950,9 +5066,15 @@
       <c r="P39" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
+      <c r="Q39" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R39" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="S39" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="T39" s="33"/>
       <c r="U39" s="34"/>
       <c r="V39" s="35"/>
@@ -4960,7 +5082,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="29" t="n">
         <v>191</v>
       </c>
@@ -5001,7 +5123,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="29" t="n">
         <v>376</v>
       </c>
@@ -5075,18 +5197,10 @@
       </c>
       <c r="K42" s="33"/>
       <c r="L42" s="33"/>
-      <c r="M42" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="N42" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="O42" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="P42" s="33" t="s">
-        <v>58</v>
-      </c>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
       <c r="Q42" s="33"/>
       <c r="R42" s="33"/>
       <c r="S42" s="33"/>
@@ -5130,18 +5244,10 @@
       </c>
       <c r="K43" s="33"/>
       <c r="L43" s="33"/>
-      <c r="M43" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="N43" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="O43" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="P43" s="33" t="s">
-        <v>58</v>
-      </c>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
       <c r="Q43" s="33"/>
       <c r="R43" s="33"/>
       <c r="S43" s="33"/>
@@ -5152,7 +5258,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="102.2" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="29" t="n">
         <v>452</v>
       </c>
@@ -5244,9 +5350,15 @@
       <c r="P45" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
-      <c r="S45" s="29"/>
+      <c r="Q45" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R45" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="S45" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="T45" s="33"/>
       <c r="U45" s="29"/>
       <c r="V45" s="29"/>
@@ -5254,7 +5366,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="29" t="n">
         <v>466</v>
       </c>
@@ -5299,8 +5411,12 @@
       <c r="P46" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="33"/>
+      <c r="Q46" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R46" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="S46" s="39" t="s">
         <v>77</v>
       </c>
@@ -5356,9 +5472,15 @@
       <c r="P47" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33"/>
-      <c r="S47" s="29"/>
+      <c r="Q47" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R47" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="S47" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="T47" s="33"/>
       <c r="U47" s="29"/>
       <c r="V47" s="29"/>
@@ -5366,7 +5488,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="90.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="90.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="29" t="n">
         <v>473</v>
       </c>
@@ -5411,8 +5533,12 @@
       <c r="P48" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="33"/>
+      <c r="Q48" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R48" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="S48" s="33" t="s">
         <v>77</v>
       </c>
@@ -5468,9 +5594,15 @@
       <c r="P49" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="33"/>
-      <c r="S49" s="33"/>
+      <c r="Q49" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="R49" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="S49" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="T49" s="33"/>
       <c r="U49" s="34"/>
       <c r="V49" s="35"/>
@@ -9638,13 +9770,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A9:W49">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="RSA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A9:W49"/>
   <mergeCells count="7">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -9655,7 +9781,7 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J49 M10:N49 P10:R24 O25:R39 P40:R41 O42:R43 P44:R44 O45:R45 P46:R46 O47:R49" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J49 M10:N41 P10:R24 O25:R39 P40:R41 M42:R43 M44:N49 P44:R44 O45:R45 P46:R46 O47:R49" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
